--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3248.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3248.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.673811075913548</v>
+        <v>0.6802170276641846</v>
       </c>
       <c r="B1">
-        <v>2.145190842301867</v>
+        <v>0.4580024778842926</v>
       </c>
       <c r="C1">
-        <v>2.310484716192942</v>
+        <v>0.3558070659637451</v>
       </c>
       <c r="D1">
-        <v>2.699831555518888</v>
+        <v>0.3455876111984253</v>
       </c>
       <c r="E1">
-        <v>3.550252488782831</v>
+        <v>0.3739714324474335</v>
       </c>
     </row>
   </sheetData>
